--- a/yatraHotelBooking/target/test-classes/userData/yatraUserData.xlsx
+++ b/yatraHotelBooking/target/test-classes/userData/yatraUserData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10740"/>
+    <workbookView windowWidth="18195" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:I2"/>
 </workbook>
 </file>
 
@@ -40,7 +41,7 @@
     <t>1st  name</t>
   </si>
   <si>
-    <t>Bangalore</t>
+    <t>Mysore</t>
   </si>
   <si>
     <t>27/10/2019</t>
@@ -69,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,22 +92,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +108,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -127,15 +155,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,39 +170,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,30 +192,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,18 +237,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,163 +369,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,8 +433,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -442,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,35 +468,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +505,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +533,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,130 +551,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1007,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>

--- a/yatraHotelBooking/target/test-classes/userData/yatraUserData.xlsx
+++ b/yatraHotelBooking/target/test-classes/userData/yatraUserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="8700"/>
+    <workbookView windowWidth="20475" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>27/10/2019</t>
   </si>
   <si>
-    <t>29/10/2019</t>
+    <t>30/10/2019</t>
   </si>
   <si>
     <t>ranga@gmail.com</t>
@@ -70,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,10 +93,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,8 +108,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -118,7 +149,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,53 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,36 +222,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -243,37 +243,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,55 +351,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,79 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,23 +458,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,23 +508,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +533,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,130 +551,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>

--- a/yatraHotelBooking/target/test-classes/userData/yatraUserData.xlsx
+++ b/yatraHotelBooking/target/test-classes/userData/yatraUserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8925"/>
+    <workbookView windowWidth="20115" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>1st  name</t>
   </si>
   <si>
-    <t>Mysore</t>
+    <t>Delhi</t>
   </si>
   <si>
     <t>27/10/2019</t>
@@ -72,8 +72,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +87,38 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,24 +133,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,88 +179,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +193,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -237,37 +237,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,49 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,91 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,10 +431,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -451,15 +492,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,26 +513,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,23 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,40 +551,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -593,88 +593,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
